--- a/data/trans_dic/P55$privada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05990789979886677</v>
+        <v>0.05895619856975028</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06189171079986621</v>
+        <v>0.07373162059754861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08245886709831336</v>
+        <v>0.0830120973894333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09009871007549837</v>
+        <v>0.09908855623623343</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.123677103149647</v>
+        <v>0.122003707886354</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1030212091797298</v>
+        <v>0.1033679740186898</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08533289917218435</v>
+        <v>0.08858565141422109</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1317017632272615</v>
+        <v>0.135402910954299</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1084871705826222</v>
+        <v>0.1057949299994916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1036818124410878</v>
+        <v>0.1023066445030407</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1011562515341002</v>
+        <v>0.1004449223775929</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1308985017722769</v>
+        <v>0.1296565301730356</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1750966295763055</v>
+        <v>0.1750471427609912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.187915488468215</v>
+        <v>0.1877135659819039</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2205694909833515</v>
+        <v>0.2192358254793614</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2027242541604268</v>
+        <v>0.216242119829933</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2311102949344059</v>
+        <v>0.2259624656279015</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2019424088726675</v>
+        <v>0.19949481018344</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.190456514229891</v>
+        <v>0.1967699384504731</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2020373814963584</v>
+        <v>0.2018694929583955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1925130836560122</v>
+        <v>0.1886435251488629</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1751127379278823</v>
+        <v>0.1793733822926865</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1855751043712162</v>
+        <v>0.1840038026420998</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1917365053705857</v>
+        <v>0.1892232068462995</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05074598453823877</v>
+        <v>0.05112544436694856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06957951007786402</v>
+        <v>0.06955193754526848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08488521879235603</v>
+        <v>0.08786268342914584</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2918740878056083</v>
+        <v>0.3090323995668644</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1338019157124866</v>
+        <v>0.1112275518039559</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06771721370788922</v>
+        <v>0.08025485230475032</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1544304862196455</v>
+        <v>0.1508139719620578</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1607469187483119</v>
+        <v>0.1642051201998277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1211410082536678</v>
+        <v>0.1161634372365487</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09816840956888878</v>
+        <v>0.09262239461792296</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1491009894380326</v>
+        <v>0.1478790501261285</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2695553616976504</v>
+        <v>0.2605558049463748</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4279943215689814</v>
+        <v>0.3997156602199927</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3743072564201443</v>
+        <v>0.3594968567398457</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.261604860479941</v>
+        <v>0.2578089064708506</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8591501564206158</v>
+        <v>0.8520511727536049</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6068819395843993</v>
+        <v>0.5938217396010954</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3166831030274971</v>
+        <v>0.3268062632806802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3194081363878883</v>
+        <v>0.3200753811707526</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5291921795301441</v>
+        <v>0.5132304273549779</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4339577777762915</v>
+        <v>0.418419481539649</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2809957130053269</v>
+        <v>0.2871943471179327</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2667212043274209</v>
+        <v>0.2624813681545438</v>
       </c>
     </row>
     <row r="10">
@@ -980,36 +980,36 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08795753338785035</v>
+        <v>0.08750952838911828</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1056687997813219</v>
+        <v>0.0950454223623942</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3190848050696948</v>
+        <v>0.3391442116459938</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3322648042243682</v>
+        <v>0.193805832979332</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.144066849522079</v>
+        <v>0.1541429966871219</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.308752352189664</v>
+        <v>0.2886930504685368</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1636095329685042</v>
+        <v>0.1665263912331825</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1792340405180672</v>
+        <v>0.174695098147177</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1603288518633332</v>
+        <v>0.1585919342930858</v>
       </c>
     </row>
     <row r="12">
@@ -1020,15 +1020,15 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8159012164736188</v>
+        <v>0.7911970808228247</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.4597351481452341</v>
+        <v>0.4652075007556771</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.913007573542388</v>
+        <v>0.9175903809454539</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
@@ -1037,19 +1037,19 @@
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4827891114099767</v>
+        <v>0.4750403696190752</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7474356184094286</v>
+        <v>0.7504820296559456</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8038997276682832</v>
+        <v>0.7950996933171245</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3944135279075757</v>
+        <v>0.4308144285451698</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1183122248422875</v>
+        <v>0.1196529621873579</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1245293228437835</v>
+        <v>0.1250724714912324</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1534235050248817</v>
+        <v>0.1537625495669154</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1189284075686608</v>
+        <v>0.1229945657980492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1523259048916386</v>
+        <v>0.1506416338900215</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2119037535709904</v>
+        <v>0.2155152176990327</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2203143116712272</v>
+        <v>0.2199842725304218</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2196437391095245</v>
+        <v>0.2166478040132722</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1943232333595759</v>
+        <v>0.1959762905107388</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2055360022765134</v>
+        <v>0.2034179145218484</v>
       </c>
     </row>
     <row r="16">
@@ -1455,40 +1455,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6172</v>
+        <v>6074</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7682</v>
+        <v>9152</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7707</v>
+        <v>7759</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9350</v>
+        <v>10283</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25459</v>
+        <v>25115</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25842</v>
+        <v>25929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17797</v>
+        <v>18476</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>36457</v>
+        <v>37481</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>33509</v>
+        <v>32678</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>38877</v>
+        <v>38362</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30552</v>
+        <v>30337</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>49818</v>
+        <v>49345</v>
       </c>
     </row>
     <row r="7">
@@ -1499,40 +1499,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18040</v>
+        <v>18034</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23325</v>
+        <v>23300</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20615</v>
+        <v>20491</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21037</v>
+        <v>22440</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47574</v>
+        <v>46515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50656</v>
+        <v>50042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39722</v>
+        <v>41039</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55927</v>
+        <v>55880</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59463</v>
+        <v>58268</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>65662</v>
+        <v>67259</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56048</v>
+        <v>55574</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>72972</v>
+        <v>72015</v>
       </c>
     </row>
     <row r="8">
@@ -1638,37 +1638,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4017</v>
+        <v>4158</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3940</v>
+        <v>4172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2830</v>
+        <v>2353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3524</v>
+        <v>4176</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9676</v>
+        <v>9449</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4451</v>
+        <v>4546</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4987</v>
+        <v>4782</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7354</v>
+        <v>6939</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16398</v>
+        <v>16263</v>
       </c>
     </row>
     <row r="11">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3824</v>
+        <v>3697</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8566</v>
+        <v>8000</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8563</v>
+        <v>8224</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12380</v>
+        <v>12200</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11598</v>
+        <v>11502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12837</v>
+        <v>12561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16480</v>
+        <v>17007</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20012</v>
+        <v>20054</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14652</v>
+        <v>14210</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17865</v>
+        <v>17225</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21051</v>
+        <v>21516</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29333</v>
+        <v>28867</v>
       </c>
     </row>
     <row r="12">
@@ -1815,36 +1815,36 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>1751</v>
+        <v>1575</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3692</v>
+        <v>3925</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2247</v>
+        <v>1311</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2268</v>
+        <v>2427</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6464</v>
+        <v>6044</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2129</v>
+        <v>2075</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5181</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="15">
@@ -1855,15 +1855,15 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7641</v>
+        <v>7410</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>7619</v>
+        <v>7710</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10565</v>
+        <v>10618</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>4423</v>
@@ -1872,19 +1872,19 @@
         <v>6762</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7601</v>
+        <v>7479</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15649</v>
+        <v>15713</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>6452</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9550</v>
+        <v>9446</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12746</v>
+        <v>13923</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19837</v>
+        <v>20062</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34422</v>
+        <v>34573</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>54498</v>
+        <v>54618</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>50258</v>
+        <v>51976</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>79648</v>
+        <v>78767</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35529</v>
+        <v>36135</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>60899</v>
+        <v>60808</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78020</v>
+        <v>76956</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>82119</v>
+        <v>82817</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>107470</v>
+        <v>106363</v>
       </c>
     </row>
     <row r="20">
